--- a/APM files/135799008/135799008 IMPORT 1 Promotion Member Deal.xlsx
+++ b/APM files/135799008/135799008 IMPORT 1 Promotion Member Deal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/135799008/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7E701D-5D00-9F4E-9BBC-AA7DC9690B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F313ADB8-52B7-3945-9234-1F29AFD50D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="27040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet3!$A$1:$AB$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet3!$A$1:$AC$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -140,9 +140,6 @@
     <t>Action Type</t>
   </si>
   <si>
-    <t>Create</t>
-  </si>
-  <si>
     <t>ACTIVE</t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>All Rate Plans</t>
+  </si>
+  <si>
+    <t>Update</t>
   </si>
 </sst>
 </file>
@@ -549,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D2A981-B9B1-4E39-97C9-254867A09CDC}">
   <dimension ref="A1:AF20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="143" workbookViewId="0">
+      <selection activeCell="AF11" sqref="AF11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -567,23 +567,23 @@
     <col min="12" max="12" width="21.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.33203125" customWidth="1"/>
+    <col min="16" max="16" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -592,7 +592,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -631,55 +631,55 @@
         <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>23</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="2" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>135799008</v>
@@ -696,25 +696,25 @@
         <v>2188002</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
         <v>30</v>
@@ -726,45 +726,45 @@
         <v>0.1</v>
       </c>
       <c r="N2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>500</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>28</v>
+      </c>
+      <c r="U2" t="s">
         <v>32</v>
       </c>
-      <c r="O2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>500</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>28</v>
-      </c>
-      <c r="T2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" t="s">
-        <v>31</v>
-      </c>
       <c r="V2" t="s">
         <v>31</v>
       </c>
       <c r="W2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" t="s">
         <v>37</v>
       </c>
-      <c r="X2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>135799008</v>
@@ -773,25 +773,25 @@
         <v>2708925</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s">
         <v>30</v>
@@ -803,45 +803,45 @@
         <v>0.1</v>
       </c>
       <c r="N3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>500</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>28</v>
+      </c>
+      <c r="U3" t="s">
         <v>32</v>
       </c>
-      <c r="O3" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>500</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3">
-        <v>28</v>
-      </c>
-      <c r="T3" t="s">
-        <v>32</v>
-      </c>
-      <c r="U3" t="s">
-        <v>31</v>
-      </c>
       <c r="V3" t="s">
         <v>31</v>
       </c>
       <c r="W3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y3" t="s">
         <v>37</v>
       </c>
-      <c r="X3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>135799008</v>
@@ -850,25 +850,25 @@
         <v>9552154</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K4" t="s">
         <v>30</v>
@@ -880,45 +880,45 @@
         <v>0.1</v>
       </c>
       <c r="N4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>500</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>28</v>
+      </c>
+      <c r="U4" t="s">
         <v>32</v>
       </c>
-      <c r="O4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>500</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="S4">
-        <v>28</v>
-      </c>
-      <c r="T4" t="s">
-        <v>32</v>
-      </c>
-      <c r="U4" t="s">
-        <v>31</v>
-      </c>
       <c r="V4" t="s">
         <v>31</v>
       </c>
       <c r="W4" t="s">
+        <v>31</v>
+      </c>
+      <c r="X4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y4" t="s">
         <v>37</v>
       </c>
-      <c r="X4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>135799008</v>
@@ -927,25 +927,25 @@
         <v>10632146</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K5" t="s">
         <v>30</v>
@@ -957,45 +957,45 @@
         <v>0.1</v>
       </c>
       <c r="N5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>500</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>28</v>
+      </c>
+      <c r="U5" t="s">
         <v>32</v>
       </c>
-      <c r="O5" t="s">
-        <v>42</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>500</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <v>28</v>
-      </c>
-      <c r="T5" t="s">
-        <v>32</v>
-      </c>
-      <c r="U5" t="s">
-        <v>31</v>
-      </c>
       <c r="V5" t="s">
         <v>31</v>
       </c>
       <c r="W5" t="s">
+        <v>31</v>
+      </c>
+      <c r="X5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y5" t="s">
         <v>37</v>
       </c>
-      <c r="X5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>135799008</v>
@@ -1004,25 +1004,25 @@
         <v>13339542</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K6" t="s">
         <v>30</v>
@@ -1034,45 +1034,45 @@
         <v>0.1</v>
       </c>
       <c r="N6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>500</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>28</v>
+      </c>
+      <c r="U6" t="s">
         <v>32</v>
       </c>
-      <c r="O6" t="s">
-        <v>42</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>500</v>
-      </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="S6">
-        <v>28</v>
-      </c>
-      <c r="T6" t="s">
-        <v>32</v>
-      </c>
-      <c r="U6" t="s">
-        <v>31</v>
-      </c>
       <c r="V6" t="s">
         <v>31</v>
       </c>
       <c r="W6" t="s">
+        <v>31</v>
+      </c>
+      <c r="X6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y6" t="s">
         <v>37</v>
       </c>
-      <c r="X6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>135799008</v>
@@ -1081,25 +1081,25 @@
         <v>17247149</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7" t="s">
         <v>30</v>
@@ -1111,45 +1111,45 @@
         <v>0.1</v>
       </c>
       <c r="N7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>500</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>28</v>
+      </c>
+      <c r="U7" t="s">
         <v>32</v>
       </c>
-      <c r="O7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>500</v>
-      </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-      <c r="S7">
-        <v>28</v>
-      </c>
-      <c r="T7" t="s">
-        <v>32</v>
-      </c>
-      <c r="U7" t="s">
-        <v>31</v>
-      </c>
       <c r="V7" t="s">
         <v>31</v>
       </c>
       <c r="W7" t="s">
+        <v>31</v>
+      </c>
+      <c r="X7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y7" t="s">
         <v>37</v>
       </c>
-      <c r="X7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>135799008</v>
@@ -1158,25 +1158,25 @@
         <v>17413467</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K8" t="s">
         <v>30</v>
@@ -1188,45 +1188,45 @@
         <v>0.1</v>
       </c>
       <c r="N8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>500</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>28</v>
+      </c>
+      <c r="U8" t="s">
         <v>32</v>
       </c>
-      <c r="O8" t="s">
-        <v>42</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>500</v>
-      </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-      <c r="S8">
-        <v>28</v>
-      </c>
-      <c r="T8" t="s">
-        <v>32</v>
-      </c>
-      <c r="U8" t="s">
-        <v>31</v>
-      </c>
       <c r="V8" t="s">
         <v>31</v>
       </c>
       <c r="W8" t="s">
+        <v>31</v>
+      </c>
+      <c r="X8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y8" t="s">
         <v>37</v>
       </c>
-      <c r="X8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>135799008</v>
@@ -1235,25 +1235,25 @@
         <v>21595393</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K9" t="s">
         <v>30</v>
@@ -1265,45 +1265,45 @@
         <v>0.1</v>
       </c>
       <c r="N9" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>500</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>28</v>
+      </c>
+      <c r="U9" t="s">
         <v>32</v>
       </c>
-      <c r="O9" t="s">
-        <v>42</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>500</v>
-      </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-      <c r="S9">
-        <v>28</v>
-      </c>
-      <c r="T9" t="s">
-        <v>32</v>
-      </c>
-      <c r="U9" t="s">
-        <v>31</v>
-      </c>
       <c r="V9" t="s">
         <v>31</v>
       </c>
       <c r="W9" t="s">
+        <v>31</v>
+      </c>
+      <c r="X9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y9" t="s">
         <v>37</v>
       </c>
-      <c r="X9" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <v>135799008</v>
@@ -1312,25 +1312,25 @@
         <v>23821663</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K10" t="s">
         <v>30</v>
@@ -1342,45 +1342,45 @@
         <v>0.1</v>
       </c>
       <c r="N10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>500</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>28</v>
+      </c>
+      <c r="U10" t="s">
         <v>32</v>
       </c>
-      <c r="O10" t="s">
-        <v>42</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>500</v>
-      </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-      <c r="S10">
-        <v>28</v>
-      </c>
-      <c r="T10" t="s">
-        <v>32</v>
-      </c>
-      <c r="U10" t="s">
-        <v>31</v>
-      </c>
       <c r="V10" t="s">
         <v>31</v>
       </c>
       <c r="W10" t="s">
+        <v>31</v>
+      </c>
+      <c r="X10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y10" t="s">
         <v>37</v>
       </c>
-      <c r="X10" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B11">
         <v>135799008</v>
@@ -1389,25 +1389,25 @@
         <v>24939578</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K11" t="s">
         <v>30</v>
@@ -1419,45 +1419,45 @@
         <v>0.1</v>
       </c>
       <c r="N11" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>500</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>28</v>
+      </c>
+      <c r="U11" t="s">
         <v>32</v>
       </c>
-      <c r="O11" t="s">
-        <v>42</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>500</v>
-      </c>
-      <c r="R11">
-        <v>1</v>
-      </c>
-      <c r="S11">
-        <v>28</v>
-      </c>
-      <c r="T11" t="s">
-        <v>32</v>
-      </c>
-      <c r="U11" t="s">
-        <v>31</v>
-      </c>
       <c r="V11" t="s">
         <v>31</v>
       </c>
       <c r="W11" t="s">
+        <v>31</v>
+      </c>
+      <c r="X11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y11" t="s">
         <v>37</v>
       </c>
-      <c r="X11" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B12">
         <v>135799008</v>
@@ -1466,25 +1466,25 @@
         <v>27263415</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K12" t="s">
         <v>30</v>
@@ -1496,45 +1496,45 @@
         <v>0.1</v>
       </c>
       <c r="N12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>500</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>28</v>
+      </c>
+      <c r="U12" t="s">
         <v>32</v>
       </c>
-      <c r="O12" t="s">
-        <v>42</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>500</v>
-      </c>
-      <c r="R12">
-        <v>1</v>
-      </c>
-      <c r="S12">
-        <v>28</v>
-      </c>
-      <c r="T12" t="s">
-        <v>32</v>
-      </c>
-      <c r="U12" t="s">
-        <v>31</v>
-      </c>
       <c r="V12" t="s">
         <v>31</v>
       </c>
       <c r="W12" t="s">
+        <v>31</v>
+      </c>
+      <c r="X12" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y12" t="s">
         <v>37</v>
       </c>
-      <c r="X12" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B13">
         <v>135799008</v>
@@ -1543,25 +1543,25 @@
         <v>27572939</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K13" t="s">
         <v>30</v>
@@ -1573,45 +1573,45 @@
         <v>0.1</v>
       </c>
       <c r="N13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>500</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>28</v>
+      </c>
+      <c r="U13" t="s">
         <v>32</v>
       </c>
-      <c r="O13" t="s">
-        <v>42</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>500</v>
-      </c>
-      <c r="R13">
-        <v>1</v>
-      </c>
-      <c r="S13">
-        <v>28</v>
-      </c>
-      <c r="T13" t="s">
-        <v>32</v>
-      </c>
-      <c r="U13" t="s">
-        <v>31</v>
-      </c>
       <c r="V13" t="s">
         <v>31</v>
       </c>
       <c r="W13" t="s">
+        <v>31</v>
+      </c>
+      <c r="X13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y13" t="s">
         <v>37</v>
       </c>
-      <c r="X13" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B14">
         <v>135799008</v>
@@ -1620,25 +1620,25 @@
         <v>36869619</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K14" t="s">
         <v>30</v>
@@ -1650,45 +1650,45 @@
         <v>0.1</v>
       </c>
       <c r="N14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>500</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>28</v>
+      </c>
+      <c r="U14" t="s">
         <v>32</v>
       </c>
-      <c r="O14" t="s">
-        <v>42</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>500</v>
-      </c>
-      <c r="R14">
-        <v>1</v>
-      </c>
-      <c r="S14">
-        <v>28</v>
-      </c>
-      <c r="T14" t="s">
-        <v>32</v>
-      </c>
-      <c r="U14" t="s">
-        <v>31</v>
-      </c>
       <c r="V14" t="s">
         <v>31</v>
       </c>
       <c r="W14" t="s">
+        <v>31</v>
+      </c>
+      <c r="X14" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y14" t="s">
         <v>37</v>
       </c>
-      <c r="X14" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B15">
         <v>135799008</v>
@@ -1697,25 +1697,25 @@
         <v>39772860</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K15" t="s">
         <v>30</v>
@@ -1727,45 +1727,45 @@
         <v>0.1</v>
       </c>
       <c r="N15" t="s">
+        <v>31</v>
+      </c>
+      <c r="P15" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>500</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>28</v>
+      </c>
+      <c r="U15" t="s">
         <v>32</v>
       </c>
-      <c r="O15" t="s">
-        <v>42</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>500</v>
-      </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
-      <c r="S15">
-        <v>28</v>
-      </c>
-      <c r="T15" t="s">
-        <v>32</v>
-      </c>
-      <c r="U15" t="s">
-        <v>31</v>
-      </c>
       <c r="V15" t="s">
         <v>31</v>
       </c>
       <c r="W15" t="s">
+        <v>31</v>
+      </c>
+      <c r="X15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y15" t="s">
         <v>37</v>
       </c>
-      <c r="X15" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B16">
         <v>135799008</v>
@@ -1774,25 +1774,25 @@
         <v>40200187</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K16" t="s">
         <v>30</v>
@@ -1804,45 +1804,45 @@
         <v>0.1</v>
       </c>
       <c r="N16" t="s">
+        <v>31</v>
+      </c>
+      <c r="P16" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>500</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>28</v>
+      </c>
+      <c r="U16" t="s">
         <v>32</v>
       </c>
-      <c r="O16" t="s">
+      <c r="V16" t="s">
+        <v>31</v>
+      </c>
+      <c r="W16" t="s">
+        <v>31</v>
+      </c>
+      <c r="X16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>42</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>500</v>
-      </c>
-      <c r="R16">
-        <v>1</v>
-      </c>
-      <c r="S16">
-        <v>28</v>
-      </c>
-      <c r="T16" t="s">
-        <v>32</v>
-      </c>
-      <c r="U16" t="s">
-        <v>31</v>
-      </c>
-      <c r="V16" t="s">
-        <v>31</v>
-      </c>
-      <c r="W16" t="s">
-        <v>37</v>
-      </c>
-      <c r="X16" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>34</v>
       </c>
       <c r="B17">
         <v>135799008</v>
@@ -1851,25 +1851,25 @@
         <v>42061095</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K17" t="s">
         <v>30</v>
@@ -1881,45 +1881,45 @@
         <v>0.1</v>
       </c>
       <c r="N17" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>500</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>28</v>
+      </c>
+      <c r="U17" t="s">
         <v>32</v>
       </c>
-      <c r="O17" t="s">
+      <c r="V17" t="s">
+        <v>31</v>
+      </c>
+      <c r="W17" t="s">
+        <v>31</v>
+      </c>
+      <c r="X17" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>42</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>500</v>
-      </c>
-      <c r="R17">
-        <v>1</v>
-      </c>
-      <c r="S17">
-        <v>28</v>
-      </c>
-      <c r="T17" t="s">
-        <v>32</v>
-      </c>
-      <c r="U17" t="s">
-        <v>31</v>
-      </c>
-      <c r="V17" t="s">
-        <v>31</v>
-      </c>
-      <c r="W17" t="s">
-        <v>37</v>
-      </c>
-      <c r="X17" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>34</v>
       </c>
       <c r="B18">
         <v>135799008</v>
@@ -1928,25 +1928,25 @@
         <v>83323482</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K18" t="s">
         <v>30</v>
@@ -1958,45 +1958,45 @@
         <v>0.1</v>
       </c>
       <c r="N18" t="s">
+        <v>31</v>
+      </c>
+      <c r="P18" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>500</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>28</v>
+      </c>
+      <c r="U18" t="s">
         <v>32</v>
       </c>
-      <c r="O18" t="s">
+      <c r="V18" t="s">
+        <v>31</v>
+      </c>
+      <c r="W18" t="s">
+        <v>31</v>
+      </c>
+      <c r="X18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>42</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>500</v>
-      </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
-      <c r="S18">
-        <v>28</v>
-      </c>
-      <c r="T18" t="s">
-        <v>32</v>
-      </c>
-      <c r="U18" t="s">
-        <v>31</v>
-      </c>
-      <c r="V18" t="s">
-        <v>31</v>
-      </c>
-      <c r="W18" t="s">
-        <v>37</v>
-      </c>
-      <c r="X18" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>34</v>
       </c>
       <c r="B19">
         <v>135799008</v>
@@ -2005,25 +2005,25 @@
         <v>106602175</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K19" t="s">
         <v>30</v>
@@ -2035,45 +2035,45 @@
         <v>0.1</v>
       </c>
       <c r="N19" t="s">
+        <v>31</v>
+      </c>
+      <c r="P19" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>500</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>28</v>
+      </c>
+      <c r="U19" t="s">
         <v>32</v>
       </c>
-      <c r="O19" t="s">
+      <c r="V19" t="s">
+        <v>31</v>
+      </c>
+      <c r="W19" t="s">
+        <v>31</v>
+      </c>
+      <c r="X19" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>42</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>500</v>
-      </c>
-      <c r="R19">
-        <v>1</v>
-      </c>
-      <c r="S19">
-        <v>28</v>
-      </c>
-      <c r="T19" t="s">
-        <v>32</v>
-      </c>
-      <c r="U19" t="s">
-        <v>31</v>
-      </c>
-      <c r="V19" t="s">
-        <v>31</v>
-      </c>
-      <c r="W19" t="s">
-        <v>37</v>
-      </c>
-      <c r="X19" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>34</v>
       </c>
       <c r="B20">
         <v>135799008</v>
@@ -2082,25 +2082,25 @@
         <v>111195653</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K20" t="s">
         <v>30</v>
@@ -2112,39 +2112,39 @@
         <v>0.1</v>
       </c>
       <c r="N20" t="s">
+        <v>31</v>
+      </c>
+      <c r="P20" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>500</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>28</v>
+      </c>
+      <c r="U20" t="s">
         <v>32</v>
       </c>
-      <c r="O20" t="s">
-        <v>42</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>500</v>
-      </c>
-      <c r="R20">
-        <v>1</v>
-      </c>
-      <c r="S20">
-        <v>28</v>
-      </c>
-      <c r="T20" t="s">
-        <v>32</v>
-      </c>
-      <c r="U20" t="s">
-        <v>31</v>
-      </c>
       <c r="V20" t="s">
         <v>31</v>
       </c>
       <c r="W20" t="s">
+        <v>31</v>
+      </c>
+      <c r="X20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y20" t="s">
         <v>37</v>
       </c>
-      <c r="X20" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>31</v>
       </c>
     </row>
